--- a/alice_600.xlsx
+++ b/alice_600.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\whfwkrtlqkf\데이터셋\한국어 멀티세션 대화\AI모델\2.학습모델파일\multi_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\whfwkrtlqkf\dataset\korean_multisesstion\AImodel\train_model_file\multi_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A758DF-28B4-469A-BAB6-9BCD405F6D05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFD1BFA-1A48-4423-8FBB-B77A1AA40780}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="1157">
   <si>
     <t>이상한 나라에서는 무슨 일이 일어나?</t>
   </si>
@@ -3871,10 +3871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B592"/>
+  <dimension ref="A1:B600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
-      <selection activeCell="A499" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
+      <selection activeCell="A601" sqref="A601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8618,6 +8618,70 @@
         <v>37</v>
       </c>
     </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>118</v>
+      </c>
+      <c r="B593" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>120</v>
+      </c>
+      <c r="B594" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>814</v>
+      </c>
+      <c r="B595" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>568</v>
+      </c>
+      <c r="B597" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>838</v>
+      </c>
+      <c r="B598" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>548</v>
+      </c>
+      <c r="B599" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1005</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:B592">
     <sortCondition ref="B1"/>
